--- a/data/trans_orig/SEX_BIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SEX_BIO-Clase-trans_orig.xlsx
@@ -741,12 +741,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>142892</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>99,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>145850</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1099,12 +1099,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>109193</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1134,12 +1134,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1197,12 +1197,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>80857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1232,12 +1232,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1462,12 +1462,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>63160</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1477,12 +1477,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1540,12 +1540,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>163680</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1590,12 +1590,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1770,12 +1770,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>178509</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>99,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1883,12 +1883,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>170640</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1918,12 +1918,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2128,12 +2128,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>132590</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2226,12 +2226,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>76629</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2241,12 +2241,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2276,12 +2276,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2471,12 +2471,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>118535</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2506,12 +2506,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2569,12 +2569,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>45540</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2604,12 +2604,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2814,12 +2814,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>746501</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2849,12 +2849,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>99,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>684824</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>99,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2947,12 +2947,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2962,12 +2962,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>297643</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3497,12 +3497,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>364923</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3547,12 +3547,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>258814</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>322190</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3483</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>96423</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>471941</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1825</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>635383</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>534330</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1821</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1740</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>424895</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>210479</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4043</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>489842</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>162718</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>1345</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2209795</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>99,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2079150</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1430</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -6027,12 +6027,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -6042,12 +6042,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -6062,12 +6062,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>276285</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>277416</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -6077,12 +6077,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -6140,12 +6140,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>294428</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -6155,12 +6155,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -6190,12 +6190,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -6370,12 +6370,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -6405,12 +6405,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>230852</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -6420,12 +6420,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -6483,12 +6483,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>194692</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6498,12 +6498,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6518,12 +6518,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6533,12 +6533,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -6713,12 +6713,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6748,12 +6748,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>81795</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6763,12 +6763,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6826,12 +6826,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>180114</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>181113</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6841,12 +6841,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6861,12 +6861,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6876,12 +6876,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -7056,12 +7056,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -7071,12 +7071,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -7091,12 +7091,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>315287</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -7106,12 +7106,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -7169,12 +7169,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>307412</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -7184,12 +7184,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -7204,12 +7204,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -7219,12 +7219,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -7399,12 +7399,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -7414,12 +7414,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -7434,12 +7434,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>153958</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -7449,12 +7449,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -7512,12 +7512,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>149788</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -7527,12 +7527,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -7547,12 +7547,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -7562,12 +7562,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -7742,12 +7742,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -7757,12 +7757,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -7777,12 +7777,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11082</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12245</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -7792,12 +7792,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8242</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7870,12 +7870,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -7890,12 +7890,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -7905,12 +7905,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -8100,12 +8100,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -8120,12 +8120,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1074777</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>1075886</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -8135,12 +8135,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -8198,12 +8198,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1140021</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1141081</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -8213,12 +8213,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>99,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -8233,12 +8233,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -8248,12 +8248,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -8670,12 +8670,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8685,12 +8685,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8705,12 +8705,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>209739</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8720,12 +8720,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8783,12 +8783,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>204986</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8798,12 +8798,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8818,12 +8818,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8833,12 +8833,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -9013,12 +9013,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -9028,12 +9028,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -9048,12 +9048,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>168290</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -9126,12 +9126,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>124151</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -9141,12 +9141,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -9161,12 +9161,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -9176,12 +9176,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -9356,12 +9356,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -9371,12 +9371,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>56612</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9469,12 +9469,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95270</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9484,12 +9484,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -9504,12 +9504,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9519,12 +9519,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -9699,12 +9699,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9714,12 +9714,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -9734,12 +9734,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>157995</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9749,12 +9749,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -9812,12 +9812,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>162210</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9847,12 +9847,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9862,12 +9862,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -10042,12 +10042,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -10057,12 +10057,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -10077,12 +10077,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>93467</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -10092,12 +10092,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>98,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -10155,12 +10155,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52710</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -10170,12 +10170,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -10190,12 +10190,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -10205,12 +10205,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -10385,12 +10385,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10400,12 +10400,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -10420,12 +10420,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>62576</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10435,12 +10435,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -10498,12 +10498,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>35777</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10513,12 +10513,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10533,12 +10533,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10548,12 +10548,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10728,12 +10728,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10743,12 +10743,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10763,12 +10763,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>752763</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10778,12 +10778,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10841,12 +10841,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>679344</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10856,12 +10856,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10891,12 +10891,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">

--- a/data/trans_orig/SEX_BIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SEX_BIO-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en País Vasco</t>
+          <t>Sexo biológico en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en Andalucia</t>
+          <t>Sexo biológico en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5832,7 +5832,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en C.Valenciana</t>
+          <t>Sexo biológico en C.Valenciana (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en Barcelona</t>
+          <t>Sexo biológico en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SEX_BIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SEX_BIO-Clase-trans_orig.xlsx
@@ -771,7 +771,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>135701</t>
+          <t>161344</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>150497</t>
+          <t>176931</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>49,49%</t>
+          <t>50,84%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>46,89%</t>
+          <t>48,58%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>52,01%</t>
+          <t>53,28%</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>138884</t>
+          <t>155175</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>153680</t>
+          <t>170762</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>49,16%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>53,11%</t>
+          <t>51,42%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>103896</t>
+          <t>116073</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>115360</t>
+          <t>129163</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>57,43%</t>
+          <t>57,62%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>54,49%</t>
+          <t>54,4%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>60,5%</t>
+          <t>60,53%</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>75316</t>
+          <t>84218</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>86780</t>
+          <t>97308</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>42,38%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>39,47%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>45,6%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>57739</t>
+          <t>56390</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>69416</t>
+          <t>68448</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>31,65%</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>158094</t>
+          <t>147801</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>169771</t>
+          <t>159859</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>72,09%</t>
+          <t>71,26%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>69,49%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>74,62%</t>
+          <t>73,92%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227510</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227510</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227510</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>170598</t>
+          <t>176043</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>187254</t>
+          <t>192204</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>51,13%</t>
+          <t>51,76%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>48,77%</t>
+          <t>49,51%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>53,53%</t>
+          <t>54,06%</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>162547</t>
+          <t>163359</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>179203</t>
+          <t>179520</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>48,87%</t>
+          <t>48,24%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>51,23%</t>
+          <t>50,49%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>126064</t>
+          <t>119453</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>138796</t>
+          <t>131223</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>63,34%</t>
+          <t>62,66%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>60,06%</t>
+          <t>59,68%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>66,13%</t>
+          <t>65,56%</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>76954</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>71090</t>
+          <t>68931</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>83822</t>
+          <t>80701</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>40,32%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>114080</t>
+          <t>117593</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>123675</t>
+          <t>129670</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>72,16%</t>
+          <t>68,68%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>69,26%</t>
+          <t>65,31%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>75,08%</t>
+          <t>72,01%</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>41049</t>
+          <t>50391</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>50644</t>
+          <t>62468</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>34,69%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>728612</t>
+          <t>769679</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>763730</t>
+          <t>804028</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>52,56%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>51,4%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>53,33%</t>
+          <t>53,69%</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710430</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>668248</t>
+          <t>693487</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>703366</t>
+          <t>727836</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>47,85%</t>
+          <t>47,44%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
+          <t>46,31%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>48,6%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>274935</t>
+          <t>275537</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>323199</t>
+          <t>322581</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>41,31%</t>
+          <t>41,4%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>48,56%</t>
+          <t>48,47%</t>
         </is>
       </c>
     </row>
@@ -3567,12 +3567,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>342385</t>
+          <t>343003</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>390649</t>
+          <t>390047</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3582,12 +3582,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>51,44%</t>
+          <t>51,53%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>58,69%</t>
+          <t>58,6%</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>235697</t>
+          <t>235079</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>282173</t>
+          <t>283077</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>48,46%</t>
         </is>
       </c>
     </row>
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>301955</t>
+          <t>301051</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>348431</t>
+          <t>349049</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>51,69%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>59,76%</t>
         </is>
       </c>
     </row>
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>29390</t>
+          <t>36275</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>178373</t>
+          <t>175582</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>30,64%</t>
         </is>
       </c>
     </row>
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>394615</t>
+          <t>397406</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>543598</t>
+          <t>536713</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>68,87%</t>
+          <t>69,36%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>93,67%</t>
         </is>
       </c>
     </row>
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>510247</t>
+          <t>510284</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>855884</t>
+          <t>853244</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>72,94%</t>
+          <t>72,72%</t>
         </is>
       </c>
     </row>
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>317475</t>
+          <t>320115</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>663112</t>
+          <t>663075</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>391093</t>
+          <t>392268</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>489659</t>
+          <t>497738</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>61,25%</t>
+          <t>61,44%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>76,69%</t>
+          <t>77,95%</t>
         </is>
       </c>
     </row>
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>148849</t>
+          <t>140770</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>247415</t>
+          <t>246240</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>38,56%</t>
         </is>
       </c>
     </row>
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>455249</t>
+          <t>456813</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>522181</t>
+          <t>522308</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>69,19%</t>
+          <t>69,43%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>79,37%</t>
+          <t>79,38%</t>
         </is>
       </c>
     </row>
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>135767</t>
+          <t>135640</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>202699</t>
+          <t>201135</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>30,57%</t>
         </is>
       </c>
     </row>
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1848957</t>
+          <t>1853567</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>2511399</t>
+          <t>2494159</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>43,07%</t>
+          <t>43,18%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>58,51%</t>
+          <t>58,1%</t>
         </is>
       </c>
     </row>
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1781115</t>
+          <t>1798355</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2443557</t>
+          <t>2438947</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>41,49%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>56,82%</t>
         </is>
       </c>
     </row>
@@ -8740,12 +8740,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>197327</t>
+          <t>196029</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>223573</t>
+          <t>224367</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8755,12 +8755,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>47,12%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>53,74%</t>
+          <t>53,93%</t>
         </is>
       </c>
     </row>
@@ -8853,12 +8853,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>192466</t>
+          <t>191672</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>218712</t>
+          <t>220010</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8868,12 +8868,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>46,26%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>52,57%</t>
+          <t>52,88%</t>
         </is>
       </c>
     </row>
@@ -9083,12 +9083,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>156486</t>
+          <t>157136</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>180937</t>
+          <t>180988</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -9098,12 +9098,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>53,23%</t>
+          <t>53,45%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>61,55%</t>
+          <t>61,56%</t>
         </is>
       </c>
     </row>
@@ -9196,12 +9196,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>113053</t>
+          <t>113002</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>137504</t>
+          <t>136854</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>46,77%</t>
+          <t>46,55%</t>
         </is>
       </c>
     </row>
@@ -9426,12 +9426,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>48066</t>
+          <t>47330</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>66925</t>
+          <t>67457</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>31,3%</t>
+          <t>30,82%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>43,93%</t>
         </is>
       </c>
     </row>
@@ -9539,12 +9539,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>86632</t>
+          <t>86100</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>105491</t>
+          <t>106227</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>56,42%</t>
+          <t>56,07%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>68,7%</t>
+          <t>69,18%</t>
         </is>
       </c>
     </row>
@@ -9769,12 +9769,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>143794</t>
+          <t>143760</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>174508</t>
+          <t>173094</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>44,65%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>54,19%</t>
+          <t>53,75%</t>
         </is>
       </c>
     </row>
@@ -9882,12 +9882,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>147543</t>
+          <t>148957</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>178257</t>
+          <t>178291</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9897,12 +9897,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>45,81%</t>
+          <t>46,25%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>55,35%</t>
+          <t>55,36%</t>
         </is>
       </c>
     </row>
@@ -10112,12 +10112,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>84095</t>
+          <t>84321</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>102851</t>
+          <t>103719</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -10127,12 +10127,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>56,76%</t>
+          <t>56,92%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>69,42%</t>
+          <t>70,01%</t>
         </is>
       </c>
     </row>
@@ -10225,12 +10225,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>45299</t>
+          <t>44431</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>64055</t>
+          <t>63829</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -10240,12 +10240,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>43,08%</t>
         </is>
       </c>
     </row>
@@ -10455,12 +10455,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>55529</t>
+          <t>54701</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>70349</t>
+          <t>70802</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -10470,12 +10470,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>55,59%</t>
+          <t>54,76%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>70,42%</t>
+          <t>70,88%</t>
         </is>
       </c>
     </row>
@@ -10568,12 +10568,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>29548</t>
+          <t>29095</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>44368</t>
+          <t>45196</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10583,12 +10583,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>45,24%</t>
         </is>
       </c>
     </row>
@@ -10798,12 +10798,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>726276</t>
+          <t>725390</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>783768</t>
+          <t>785018</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10813,12 +10813,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>50,66%</t>
+          <t>50,6%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>54,76%</t>
         </is>
       </c>
     </row>
@@ -10911,12 +10911,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>649916</t>
+          <t>648666</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>707408</t>
+          <t>708294</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -10926,12 +10926,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>45,24%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>49,34%</t>
+          <t>49,4%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SEX_BIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SEX_BIO-Clase-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Sexo biológico en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -766,12 +766,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -801,37 +801,37 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>455</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>161344</t>
+          <t>301361</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>176931</t>
+          <t>352061</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>45,31%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>48,58%</t>
+          <t>41,68%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>53,28%</t>
+          <t>48,69%</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>163247</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -914,37 +914,37 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>399</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>163247</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>155175</t>
+          <t>370952</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>170762</t>
+          <t>421652</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>49,16%</t>
+          <t>54,69%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>46,72%</t>
+          <t>51,31%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>51,42%</t>
+          <t>58,32%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>163247</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>163247</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>163247</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>332106</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>332106</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>332106</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>122956</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1144,37 +1144,37 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>393</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>122956</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>116073</t>
+          <t>261544</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>129163</t>
+          <t>311950</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>57,62%</t>
+          <t>45,45%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>54,4%</t>
+          <t>41,43%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>60,53%</t>
+          <t>49,41%</t>
         </is>
       </c>
     </row>
@@ -1187,12 +1187,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1257,37 +1257,37 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>84218</t>
+          <t>319337</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>97308</t>
+          <t>369743</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>42,38%</t>
+          <t>54,55%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>50,59%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>58,57%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122956</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122956</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122956</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213381</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213381</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213381</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1452,12 +1452,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1487,37 +1487,37 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>163</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>56390</t>
+          <t>95863</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>68448</t>
+          <t>127416</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>34,25%</t>
         </is>
       </c>
     </row>
@@ -1530,12 +1530,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>154094</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1600,37 +1600,37 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>261</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>154094</t>
+          <t>260557</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>147801</t>
+          <t>244627</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>159859</t>
+          <t>276180</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>71,26%</t>
+          <t>70,03%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>65,75%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>73,92%</t>
+          <t>74,23%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>154094</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>154094</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>154094</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>62155</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>216249</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>216249</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>216249</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>671</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1830,37 +1830,37 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>671</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>176043</t>
+          <t>455688</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>192204</t>
+          <t>520138</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>44,58%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>41,4%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>54,06%</t>
+          <t>47,25%</t>
         </is>
       </c>
     </row>
@@ -1873,12 +1873,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1943,37 +1943,37 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>563</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>163359</t>
+          <t>580593</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>179520</t>
+          <t>645043</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>48,24%</t>
+          <t>55,42%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>52,75%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>50,49%</t>
+          <t>58,6%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>171536</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>671</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>184027</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>355563</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -2173,37 +2173,37 @@
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>586</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>119453</t>
+          <t>383157</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>131223</t>
+          <t>435630</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>62,66%</t>
+          <t>61,64%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>59,68%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>65,56%</t>
+          <t>65,7%</t>
         </is>
       </c>
     </row>
@@ -2216,12 +2216,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2286,37 +2286,37 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>233</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>68931</t>
+          <t>227441</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>80701</t>
+          <t>279914</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>42,21%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74738</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408742</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>819</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>200154</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>200154</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>200154</t>
+          <t>663071</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2481,12 +2481,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -2516,37 +2516,37 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>700</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>117593</t>
+          <t>513830</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>129670</t>
+          <t>578122</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>68,68%</t>
+          <t>76,38%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>65,31%</t>
+          <t>71,6%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>72,01%</t>
+          <t>80,56%</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2559,12 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -2629,37 +2629,37 @@
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>50391</t>
+          <t>139537</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>62468</t>
+          <t>203829</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>28,4%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>56389</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>123672</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>778</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>180061</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>180061</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>180061</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>787085</t>
+          <t>2173706</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -2859,37 +2859,37 @@
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>787085</t>
+          <t>2173706</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>769679</t>
+          <t>2105524</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>804028</t>
+          <t>2240982</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>52,56%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>51,4%</t>
+          <t>50,04%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>53,69%</t>
+          <t>53,26%</t>
         </is>
       </c>
     </row>
@@ -2902,12 +2902,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>710429</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -2972,37 +2972,37 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>710430</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>693487</t>
+          <t>1966821</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>727836</t>
+          <t>2102279</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>47,44%</t>
+          <t>48,34%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>46,31%</t>
+          <t>46,74%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>48,6%</t>
+          <t>49,96%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>710429</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>710429</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>710429</t>
+          <t>2034097</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>787085</t>
+          <t>2173706</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>787085</t>
+          <t>2173706</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>787085</t>
+          <t>2173706</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8426</t>
+          <t>4836</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1497515</t>
+          <t>4207803</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1497515</t>
+          <t>4207803</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1497515</t>
+          <t>4207803</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en Andalucia (tasa de respuesta: 100,0%)</t>
+          <t>Sexo biológico en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3409,12 +3409,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>614</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -3444,37 +3444,37 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>614</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210397</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>275537</t>
+          <t>196029</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>322581</t>
+          <t>224367</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>50,57%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>47,12%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>48,47%</t>
+          <t>53,93%</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -3557,37 +3557,37 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>601</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>343003</t>
+          <t>191672</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>390047</t>
+          <t>220010</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>55,09%</t>
+          <t>49,43%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>58,6%</t>
+          <t>52,88%</t>
         </is>
       </c>
     </row>
@@ -3600,22 +3600,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3635,22 +3635,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>614</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3670,22 +3670,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -3787,37 +3787,37 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>430</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>235079</t>
+          <t>157136</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>283077</t>
+          <t>180988</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>57,5%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>40,24%</t>
+          <t>53,45%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>48,46%</t>
+          <t>61,56%</t>
         </is>
       </c>
     </row>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -3900,37 +3900,37 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124947</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>301051</t>
+          <t>113002</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>349049</t>
+          <t>136854</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>55,48%</t>
+          <t>42,5%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>51,54%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>59,76%</t>
+          <t>46,55%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -4130,37 +4130,37 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>36275</t>
+          <t>47330</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>175582</t>
+          <t>67457</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>37,38%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>30,82%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>43,93%</t>
         </is>
       </c>
     </row>
@@ -4173,12 +4173,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -4243,37 +4243,37 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>208</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>397406</t>
+          <t>86100</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>536713</t>
+          <t>106227</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>82,97%</t>
+          <t>62,62%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>69,36%</t>
+          <t>56,07%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>69,18%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>346</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4438,12 +4438,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -4473,37 +4473,37 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>333</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158909</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>510284</t>
+          <t>143760</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>853244</t>
+          <t>173094</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>54,31%</t>
+          <t>49,34%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>43,49%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>72,72%</t>
+          <t>53,75%</t>
         </is>
       </c>
     </row>
@@ -4516,12 +4516,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -4586,37 +4586,37 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>335</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>320115</t>
+          <t>148957</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>663075</t>
+          <t>178291</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>50,66%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>46,25%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>56,51%</t>
+          <t>55,36%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>668</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4781,12 +4781,12 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -4816,37 +4816,37 @@
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>185</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>392268</t>
+          <t>84321</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>497738</t>
+          <t>103719</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>66,76%</t>
+          <t>63,75%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>56,92%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>77,95%</t>
+          <t>70,01%</t>
         </is>
       </c>
     </row>
@@ -4859,12 +4859,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -4929,37 +4929,37 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>102</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>140770</t>
+          <t>44431</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>246240</t>
+          <t>63829</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>36,25%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>43,08%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>426289</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>638508</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5124,12 +5124,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -5159,37 +5159,37 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>156</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>456813</t>
+          <t>54701</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>522308</t>
+          <t>70802</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>63,41%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>69,43%</t>
+          <t>54,76%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>79,38%</t>
+          <t>70,88%</t>
         </is>
       </c>
     </row>
@@ -5202,12 +5202,12 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -5272,37 +5272,37 @@
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>135640</t>
+          <t>29095</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>201135</t>
+          <t>45196</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>36,59%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>45,24%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>63350</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>246</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>99897</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5467,12 +5467,12 @@
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>753542</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -5502,37 +5502,37 @@
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>753542</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1853567</t>
+          <t>725390</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>2494159</t>
+          <t>785018</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>51,51%</t>
+          <t>52,56%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>50,6%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>58,1%</t>
+          <t>54,76%</t>
         </is>
       </c>
     </row>
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -5615,37 +5615,37 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1798355</t>
+          <t>648666</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2438947</t>
+          <t>708294</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>47,44%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>41,9%</t>
+          <t>45,24%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>56,82%</t>
+          <t>49,4%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2081289</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>753542</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>753542</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2211225</t>
+          <t>753542</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4836</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4292514</t>
+          <t>1433684</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4292514</t>
+          <t>1433684</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4292514</t>
+          <t>1433684</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sexo biológico en Barcelona (tasa de respuesta: 100,0%)</t>
+          <t>Sexo biológico en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -8730,37 +8730,37 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>880</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>210397</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>196029</t>
+          <t>161344</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>224367</t>
+          <t>176931</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>50,57%</t>
+          <t>50,84%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>48,58%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>53,93%</t>
+          <t>53,28%</t>
         </is>
       </c>
     </row>
@@ -8773,12 +8773,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -8843,37 +8843,37 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>858</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>191672</t>
+          <t>155175</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>220010</t>
+          <t>170762</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>49,43%</t>
+          <t>49,16%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>51,42%</t>
         </is>
       </c>
     </row>
@@ -8886,22 +8886,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8921,22 +8921,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8956,22 +8956,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -9038,12 +9038,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -9073,37 +9073,37 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>675</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>157136</t>
+          <t>116073</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>180988</t>
+          <t>129163</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>57,62%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>53,45%</t>
+          <t>54,4%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>61,56%</t>
+          <t>60,53%</t>
         </is>
       </c>
     </row>
@@ -9116,12 +9116,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -9186,37 +9186,37 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>494</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>124947</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>113002</t>
+          <t>84218</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>136854</t>
+          <t>97308</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>42,38%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>39,47%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>46,55%</t>
+          <t>45,6%</t>
         </is>
       </c>
     </row>
@@ -9229,22 +9229,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -9264,22 +9264,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -9299,22 +9299,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -9381,12 +9381,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -9416,37 +9416,37 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>369</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>47330</t>
+          <t>56390</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>67457</t>
+          <t>68448</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>31,65%</t>
         </is>
       </c>
     </row>
@@ -9459,12 +9459,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -9529,37 +9529,37 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>923</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>86100</t>
+          <t>147801</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>106227</t>
+          <t>159859</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>62,62%</t>
+          <t>71,26%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>69,18%</t>
+          <t>73,92%</t>
         </is>
       </c>
     </row>
@@ -9572,22 +9572,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9607,22 +9607,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9642,22 +9642,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9724,12 +9724,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -9759,37 +9759,37 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>158909</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>143760</t>
+          <t>176043</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>173094</t>
+          <t>192204</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>49,34%</t>
+          <t>51,76%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>49,51%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>53,75%</t>
+          <t>54,06%</t>
         </is>
       </c>
     </row>
@@ -9802,12 +9802,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -9872,37 +9872,37 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>148957</t>
+          <t>163359</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>178291</t>
+          <t>179520</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>50,66%</t>
+          <t>48,24%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>55,36%</t>
+          <t>50,49%</t>
         </is>
       </c>
     </row>
@@ -9915,22 +9915,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9950,22 +9950,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9985,22 +9985,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -10067,12 +10067,12 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -10102,37 +10102,37 @@
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>746</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>84321</t>
+          <t>119453</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>103719</t>
+          <t>131223</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>63,75%</t>
+          <t>62,66%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>59,68%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>70,01%</t>
+          <t>65,56%</t>
         </is>
       </c>
     </row>
@@ -10145,12 +10145,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -10215,37 +10215,37 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>452</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>44431</t>
+          <t>68931</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>63829</t>
+          <t>80701</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>36,25%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>43,08%</t>
+          <t>40,32%</t>
         </is>
       </c>
     </row>
@@ -10258,22 +10258,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -10293,22 +10293,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -10328,22 +10328,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -10410,12 +10410,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -10445,37 +10445,37 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>698</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>54701</t>
+          <t>117593</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>70802</t>
+          <t>129670</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>63,41%</t>
+          <t>68,68%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>65,31%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>70,88%</t>
+          <t>72,01%</t>
         </is>
       </c>
     </row>
@@ -10488,12 +10488,12 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -10558,37 +10558,37 @@
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>272</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>29095</t>
+          <t>50391</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>45196</t>
+          <t>62468</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>45,24%</t>
+          <t>34,69%</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10636,22 +10636,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>63350</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10671,22 +10671,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>99897</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10753,12 +10753,12 @@
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -10788,22 +10788,22 @@
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>725390</t>
+          <t>769679</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>785018</t>
+          <t>804028</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10813,12 +10813,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>50,6%</t>
+          <t>51,4%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>53,69%</t>
         </is>
       </c>
     </row>
@@ -10831,12 +10831,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -10901,22 +10901,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>710430</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>648666</t>
+          <t>693487</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>708294</t>
+          <t>727836</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -10926,12 +10926,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>45,24%</t>
+          <t>46,31%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>49,4%</t>
+          <t>48,6%</t>
         </is>
       </c>
     </row>
@@ -10944,22 +10944,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -10979,22 +10979,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>753542</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -11014,22 +11014,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>8426</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1433684</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1433684</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1433684</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
